--- a/biology/Médecine/François_Cauvière/François_Cauvière.xlsx
+++ b/biology/Médecine/François_Cauvière/François_Cauvière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Cauvi%C3%A8re</t>
+          <t>François_Cauvière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Léger François Cauvière, né le 3 octobre 1780 à Marseille[1] et mort dans la même ville le 2 octobre 1858[2], est un médecin et chirurgien français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Léger François Cauvière, né le 3 octobre 1780 à Marseille et mort dans la même ville le 2 octobre 1858, est un médecin et chirurgien français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Cauvi%C3%A8re</t>
+          <t>François_Cauvière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils d'un maître cordonnier[3], François Cauvière fut connu comme un grand médecin et, surtout, un chirurgien de premier ordre. Sa famille exilée pour raisons politiques à Seillans (Var), Cauvière se lie avec le praticien de la commune qui est à l'origine de sa passion pour la médecine. Il délaisse du coup sa passion première, les mathématiques.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d'un maître cordonnier, François Cauvière fut connu comme un grand médecin et, surtout, un chirurgien de premier ordre. Sa famille exilée pour raisons politiques à Seillans (Var), Cauvière se lie avec le praticien de la commune qui est à l'origine de sa passion pour la médecine. Il délaisse du coup sa passion première, les mathématiques.
 Envoyé à l'armée d'Italie, en 1798, en tant qu'officier de santé de troisième classe, il reste peu de temps sous les drapeaux. Sa véritable passion devait s'exercer ailleurs. Après avoir gagné au jeu une grosse somme d'argent, il part pour Paris où il suit les cours de l'anatomiste Maygret. Afin de pouvoir survivre dans la capitale, il donne des leçons de langue et de littérature italienne.
 Il reçoit par la suite le poste de chef interne chez Laumonier, grand chirurgien de Rouen, et parvient ainsi à parfaire sa formation. Il est l'auteur d'une thèse de doctorat en médecine sur L'extraction des calculs vésicaux par la méthode latérale.
 Rentré à Marseille, François Cauvière bénéficie d'une colossale réputation dans sa ville natale. Renommé pour la qualité de son diagnostic, il est considéré comme le premier médecin de la ville. Reçu docteur en chirurgie à la faculté de Montpellier (1807), il prend la tête des services de l'Hôtel-Dieu.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Cauvi%C3%A8re</t>
+          <t>François_Cauvière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Publications de François Cauvière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extraction des calculs vésicaux par la méthode latérale, thèse de doctorat en médecine, s.d.
 Observations sur quelques maladies scrofuleuses des articulations et sur les abcès par congestion, thèse de doctorat en chirurgie, 1807.
